--- a/python cheat sheet.xlsx
+++ b/python cheat sheet.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{64A93ADC-31F4-4E9F-8A5F-DA4E13B9727C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\csci101\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF1A109-3DF9-48DF-BFE8-70BC4AE88B46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{9E479362-30C3-4966-ACF2-385E3262DBEC}"/>
+    <workbookView xWindow="5910" yWindow="2775" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{9E479362-30C3-4966-ACF2-385E3262DBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables and Containers" sheetId="2" r:id="rId1"/>
@@ -20,23 +25,16 @@
     <sheet name="Branching Functions" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:C11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="183">
   <si>
     <t>Operation</t>
   </si>
@@ -440,9 +438,6 @@
     <t>chr</t>
   </si>
   <si>
-    <t>converts input of ascii or unicorn interager back into a letter, producing 'b'</t>
-  </si>
-  <si>
     <t>break</t>
   </si>
   <si>
@@ -582,6 +577,12 @@
   </si>
   <si>
     <t>fuctions that help interact with csv files</t>
+  </si>
+  <si>
+    <t>str()</t>
+  </si>
+  <si>
+    <t>converts input of ascii or unicorn interager back into a letter</t>
   </si>
 </sst>
 </file>
@@ -1016,18 +1017,18 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -1086,10 +1087,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>98</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1154,15 +1155,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -1201,26 +1202,26 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
         <v>135</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>136</v>
       </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1236,13 +1237,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>95</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -1370,17 +1371,17 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -1427,48 +1428,48 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
         <v>143</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>146</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
         <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1481,18 +1482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD2F604-75EE-4F6B-A0EC-7397100D989B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1500,71 +1501,71 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
       <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>167</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>168</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>169</v>
-      </c>
-      <c r="D6" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1580,57 +1581,57 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>171</v>
       </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>178</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>180</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1642,18 +1643,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F242210-E8EB-4563-9338-15292AED31C6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>46</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>59</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>66</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>74</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -1801,18 +1802,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="s">
         <v>140</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>141</v>
-      </c>
-      <c r="D12" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1833,14 +1834,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.81640625" style="1"/>
+    <col min="2" max="2" width="58.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1918,13 +1919,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1980,14 +1981,14 @@
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>95</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>88</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
